--- a/template_pegase_v1/progressivecurveexperiment.xlsx
+++ b/template_pegase_v1/progressivecurveexperiment.xlsx
@@ -14,70 +14,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>molarextinctioncoefficient</t>
-  </si>
-  <si>
-    <t>sampleid</t>
-  </si>
-  <si>
-    <t>sampleblankvalue</t>
-  </si>
-  <si>
-    <t>sampleddilution</t>
-  </si>
-  <si>
-    <t>sampleportion</t>
-  </si>
-  <si>
-    <t>wavelength</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>rawdatapathway</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>reagentblankvalue</t>
-  </si>
-  <si>
-    <t>criticalapparatuscriticalsoftware</t>
-  </si>
-  <si>
-    <t>linearityrange</t>
-  </si>
-  <si>
-    <t>resultopticaldensity</t>
-  </si>
-  <si>
-    <t>criticalproduct</t>
-  </si>
-  <si>
-    <t>measuredenzyme</t>
-  </si>
-  <si>
-    <t>laboratoryoperatingmode</t>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
+    <t>SampledDilution</t>
+  </si>
+  <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>LinearityRange</t>
+  </si>
+  <si>
+    <t>ResultOpticalDensity</t>
+  </si>
+  <si>
+    <t>ReagentBlankValue</t>
+  </si>
+  <si>
+    <t>SampleBlankValue</t>
+  </si>
+  <si>
+    <t>MolarExtinctionCoefficient</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>MeasuredEnzyme</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
   <si>
     <t>#string</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
+    <t>#integer</t>
+  </si>
+  <si>
     <t>#float</t>
-  </si>
-  <si>
-    <t>#integer</t>
-  </si>
-  <si>
-    <t>#date</t>
   </si>
 </sst>
 </file>
@@ -189,49 +189,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>

--- a/template_pegase_v1/progressivecurveexperiment.xlsx
+++ b/template_pegase_v1/progressivecurveexperiment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Operator</t>
   </si>
@@ -77,7 +77,43 @@
     <t>#integer</t>
   </si>
   <si>
+    <t>#float,  unit:mlormg</t>
+  </si>
+  <si>
+    <t>#integer,  unit:nm</t>
+  </si>
+  <si>
     <t>#float</t>
+  </si>
+  <si>
+    <t>#float,  unit:l/mol/cm</t>
+  </si>
+  <si>
+    <t>#string,  unit:mmol/lormg/lorµmol/lorg/l</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -122,7 +158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -213,7 +249,7 @@
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -222,22 +258,78 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/progressivecurveexperiment.xlsx
+++ b/template_pegase_v1/progressivecurveexperiment.xlsx
@@ -14,27 +14,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>SampledDilution</t>
   </si>
   <si>
@@ -68,12 +68,12 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#integer</t>
   </si>
   <si>
@@ -92,25 +92,25 @@
     <t>#string,  unit:mmol/lormg/lorµmol/lorg/l</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t/>
@@ -225,22 +225,22 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -252,7 +252,7 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -270,7 +270,7 @@
         <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
         <v>25</v>

--- a/template_pegase_v1/progressivecurveexperiment.xlsx
+++ b/template_pegase_v1/progressivecurveexperiment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -35,19 +38,25 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>LinearityRange</t>
+  </si>
+  <si>
+    <t>CoefficientDeterminationR2</t>
+  </si>
+  <si>
+    <t>SlopeRegressionLine</t>
+  </si>
+  <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
     <t>SampledDilution</t>
   </si>
   <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
-    <t>LinearityRange</t>
-  </si>
-  <si>
-    <t>ResultOpticalDensity</t>
+    <t>OpticalDensity</t>
   </si>
   <si>
     <t>ReagentBlankValue</t>
@@ -56,16 +65,19 @@
     <t>SampleBlankValue</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>MeasuredEnzyme</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
     <t>MolarExtinctionCoefficient</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>MeasuredEnzyme</t>
-  </si>
-  <si>
-    <t>Unit</t>
+    <t>Comment</t>
   </si>
   <si>
     <t>#date</t>
@@ -74,46 +86,82 @@
     <t>#string</t>
   </si>
   <si>
+    <t>#integer,  unit:nm</t>
+  </si>
+  <si>
+    <t>#float</t>
+  </si>
+  <si>
+    <t>#float,  unit:mlormg</t>
+  </si>
+  <si>
     <t>#integer</t>
   </si>
   <si>
-    <t>#float,  unit:mlormg</t>
-  </si>
-  <si>
-    <t>#integer,  unit:nm</t>
-  </si>
-  <si>
-    <t>#float</t>
+    <t>#string,  unit:mmol/lormg/lorµmol/lorg/l</t>
   </si>
   <si>
     <t>#float,  unit:l/mol/cm</t>
   </si>
   <si>
-    <t>#string,  unit:mmol/lormg/lorµmol/lorg/l</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Longueur d'onde</t>
+  </si>
+  <si>
+    <t>#Gamme de linéarité</t>
+  </si>
+  <si>
+    <t>#coefficient de détermination (R2)</t>
+  </si>
+  <si>
+    <t>#Pente de la droite de regression</t>
+  </si>
+  <si>
+    <t>#Prise d'essai</t>
+  </si>
+  <si>
+    <t>#Facteur de dilution de l'échantillon</t>
+  </si>
+  <si>
+    <t>#Densité optique mesurée</t>
+  </si>
+  <si>
+    <t>#Valeur du blanc réactif</t>
+  </si>
+  <si>
+    <t>#Valeur du blanc échantillon</t>
+  </si>
+  <si>
+    <t>#Résultat</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -158,7 +206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,117 +267,153 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/progressivecurveexperiment.xlsx
+++ b/template_pegase_v1/progressivecurveexperiment.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,13 +41,19 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Wavelength</t>
   </si>
   <si>
     <t>LinearityRange</t>
   </si>
   <si>
-    <t>CoefficientDeterminationR2</t>
+    <t>LinearityRangeUnit</t>
+  </si>
+  <si>
+    <t>DeterminationCoefficientR2</t>
   </si>
   <si>
     <t>SlopeRegressionLine</t>
@@ -53,6 +62,9 @@
     <t>SamplePortion</t>
   </si>
   <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
     <t>SampledDilution</t>
   </si>
   <si>
@@ -68,16 +80,85 @@
     <t>Result</t>
   </si>
   <si>
+    <t>ResultUnit</t>
+  </si>
+  <si>
     <t>MeasuredEnzyme</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>MolarExtinctionCoefficient</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t># Longueur d'onde</t>
+  </si>
+  <si>
+    <t># Gamme de linéarité de la méthode</t>
+  </si>
+  <si>
+    <t># Coefficient de détermination (R2)</t>
+  </si>
+  <si>
+    <t># Pente de la droite de régression</t>
+  </si>
+  <si>
+    <t># Prise d'essai</t>
+  </si>
+  <si>
+    <t># Unité de mesure de la prise d’essai</t>
+  </si>
+  <si>
+    <t># Facteur de dilution de l'échantillon</t>
+  </si>
+  <si>
+    <t># Valeur de la densité optique mesurée</t>
+  </si>
+  <si>
+    <t># Valeur du blanc réactif</t>
+  </si>
+  <si>
+    <t># Valeur du blanc échantillon</t>
+  </si>
+  <si>
+    <t># Résultat</t>
+  </si>
+  <si>
+    <t># Unité du résultat</t>
+  </si>
+  <si>
+    <t># Enzyme dosée</t>
+  </si>
+  <si>
+    <t># Coefficient d'extinction molaire</t>
   </si>
   <si>
     <t>#date</t>
@@ -86,82 +167,134 @@
     <t>#string</t>
   </si>
   <si>
-    <t>#integer,  unit:nm</t>
+    <t>#integer,
+  unit:nm</t>
   </si>
   <si>
     <t>#float</t>
   </si>
   <si>
-    <t>#float,  unit:mlormg</t>
-  </si>
-  <si>
     <t>#integer</t>
   </si>
   <si>
-    <t>#string,  unit:mmol/lormg/lorµmol/lorg/l</t>
-  </si>
-  <si>
-    <t>#float,  unit:l/mol/cm</t>
-  </si>
-  <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t># Longueur d'onde</t>
-  </si>
-  <si>
-    <t>#Gamme de linéarité</t>
-  </si>
-  <si>
-    <t>#coefficient de détermination (R2)</t>
-  </si>
-  <si>
-    <t>#Pente de la droite de regression</t>
-  </si>
-  <si>
-    <t>#Prise d'essai</t>
-  </si>
-  <si>
-    <t>#Facteur de dilution de l'échantillon</t>
-  </si>
-  <si>
-    <t>#Densité optique mesurée</t>
-  </si>
-  <si>
-    <t>#Valeur du blanc réactif</t>
-  </si>
-  <si>
-    <t>#Valeur du blanc échantillon</t>
-  </si>
-  <si>
-    <t>#Résultat</t>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: alphanumérique XXXX-XXXX,  ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
+    <t># format : nombre décimal ou NA</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>#Commentaire</t>
+    <t># ex: 340</t>
+  </si>
+  <si>
+    <t># ex: 0-3400</t>
+  </si>
+  <si>
+    <t># ex: mg/ml</t>
+  </si>
+  <si>
+    <t># ex: 0.98</t>
+  </si>
+  <si>
+    <t># ex: 0.0005</t>
+  </si>
+  <si>
+    <t># ex: 2.0</t>
+  </si>
+  <si>
+    <t># ex: mg</t>
+  </si>
+  <si>
+    <t># ex: 10</t>
+  </si>
+  <si>
+    <t># ex: 0.335 ou NA</t>
+  </si>
+  <si>
+    <t># ex: 0.001 ou NA</t>
+  </si>
+  <si>
+    <t># 0.123ou NA</t>
+  </si>
+  <si>
+    <t># 409.935 ou NA</t>
+  </si>
+  <si>
+    <t># ex: 615.0</t>
   </si>
 </sst>
 </file>
@@ -206,7 +339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -279,141 +412,322 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/progressivecurveexperiment.xlsx
+++ b/template_pegase_v1/progressivecurveexperiment.xlsx
@@ -41,54 +41,54 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>LinearityRange</t>
+  </si>
+  <si>
+    <t>LinearityRangeUnit</t>
+  </si>
+  <si>
+    <t>DeterminationCoefficientR2</t>
+  </si>
+  <si>
+    <t>SlopeRegressionLine</t>
+  </si>
+  <si>
+    <t>SamplePortion</t>
+  </si>
+  <si>
+    <t>SamplePortionUnit</t>
+  </si>
+  <si>
+    <t>SampledDilution</t>
+  </si>
+  <si>
+    <t>OpticalDensity</t>
+  </si>
+  <si>
+    <t>ReagentBlankValue</t>
+  </si>
+  <si>
+    <t>SampleBlankValue</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>ResultUnit</t>
+  </si>
+  <si>
+    <t>MeasuredEnzyme</t>
+  </si>
+  <si>
+    <t>MolarExtinctionCoefficient</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Wavelength</t>
-  </si>
-  <si>
-    <t>LinearityRange</t>
-  </si>
-  <si>
-    <t>LinearityRangeUnit</t>
-  </si>
-  <si>
-    <t>DeterminationCoefficientR2</t>
-  </si>
-  <si>
-    <t>SlopeRegressionLine</t>
-  </si>
-  <si>
-    <t>SamplePortion</t>
-  </si>
-  <si>
-    <t>SamplePortionUnit</t>
-  </si>
-  <si>
-    <t>SampledDilution</t>
-  </si>
-  <si>
-    <t>OpticalDensity</t>
-  </si>
-  <si>
-    <t>ReagentBlankValue</t>
-  </si>
-  <si>
-    <t>SampleBlankValue</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>ResultUnit</t>
-  </si>
-  <si>
-    <t>MeasuredEnzyme</t>
-  </si>
-  <si>
-    <t>MolarExtinctionCoefficient</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -116,49 +116,49 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t># Longueur d'onde</t>
+  </si>
+  <si>
+    <t># Gamme de linéarité de la méthode</t>
+  </si>
+  <si>
+    <t># Coefficient de détermination (R2)</t>
+  </si>
+  <si>
+    <t># Pente de la droite de régression</t>
+  </si>
+  <si>
+    <t># Prise d'essai</t>
+  </si>
+  <si>
+    <t># Unité de mesure de la prise d’essai</t>
+  </si>
+  <si>
+    <t># Facteur de dilution de l'échantillon</t>
+  </si>
+  <si>
+    <t># Valeur de la densité optique mesurée</t>
+  </si>
+  <si>
+    <t># Valeur du blanc réactif</t>
+  </si>
+  <si>
+    <t># Valeur du blanc échantillon</t>
+  </si>
+  <si>
+    <t># Résultat</t>
+  </si>
+  <si>
+    <t># Unité du résultat</t>
+  </si>
+  <si>
+    <t># Enzyme dosée</t>
+  </si>
+  <si>
+    <t># Coefficient d'extinction molaire</t>
+  </si>
+  <si>
     <t># Commentaire</t>
-  </si>
-  <si>
-    <t># Longueur d'onde</t>
-  </si>
-  <si>
-    <t># Gamme de linéarité de la méthode</t>
-  </si>
-  <si>
-    <t># Coefficient de détermination (R2)</t>
-  </si>
-  <si>
-    <t># Pente de la droite de régression</t>
-  </si>
-  <si>
-    <t># Prise d'essai</t>
-  </si>
-  <si>
-    <t># Unité de mesure de la prise d’essai</t>
-  </si>
-  <si>
-    <t># Facteur de dilution de l'échantillon</t>
-  </si>
-  <si>
-    <t># Valeur de la densité optique mesurée</t>
-  </si>
-  <si>
-    <t># Valeur du blanc réactif</t>
-  </si>
-  <si>
-    <t># Valeur du blanc échantillon</t>
-  </si>
-  <si>
-    <t># Résultat</t>
-  </si>
-  <si>
-    <t># Unité du résultat</t>
-  </si>
-  <si>
-    <t># Enzyme dosée</t>
-  </si>
-  <si>
-    <t># Coefficient d'extinction molaire</t>
   </si>
   <si>
     <t>#date</t>
@@ -204,30 +204,30 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: nombre entier, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: alphanumérique XXXX-XXXX,  ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal</t>
+  </si>
+  <si>
+    <t># format: nombre décimal, ne pas spécifier d'unité</t>
+  </si>
+  <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># format: nombre décimal ou NA</t>
+  </si>
+  <si>
+    <t># format : nombre décimal ou NA</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
   </si>
   <si>
-    <t># format: nombre entier, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: alphanumérique XXXX-XXXX,  ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: nombre décimal</t>
-  </si>
-  <si>
-    <t># format: nombre décimal, ne pas spécifier d'unité</t>
-  </si>
-  <si>
-    <t># format: nombre entier</t>
-  </si>
-  <si>
-    <t># format: nombre décimal ou NA</t>
-  </si>
-  <si>
-    <t># format : nombre décimal ou NA</t>
-  </si>
-  <si>
     <t># ex: 12/06/2019</t>
   </si>
   <si>
@@ -255,46 +255,46 @@
     <t># ex: ....</t>
   </si>
   <si>
+    <t># ex: 340</t>
+  </si>
+  <si>
+    <t># ex: 0-3400</t>
+  </si>
+  <si>
+    <t># ex: mg/ml</t>
+  </si>
+  <si>
+    <t># ex: 0.98</t>
+  </si>
+  <si>
+    <t># ex: 0.0005</t>
+  </si>
+  <si>
+    <t># ex: 2.0</t>
+  </si>
+  <si>
+    <t># ex: mg</t>
+  </si>
+  <si>
+    <t># ex: 10</t>
+  </si>
+  <si>
+    <t># ex: 0.335 ou NA</t>
+  </si>
+  <si>
+    <t># ex: 0.001 ou NA</t>
+  </si>
+  <si>
+    <t># 0.123ou NA</t>
+  </si>
+  <si>
+    <t># 409.935 ou NA</t>
+  </si>
+  <si>
+    <t># ex: 615.0</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t># ex: 340</t>
-  </si>
-  <si>
-    <t># ex: 0-3400</t>
-  </si>
-  <si>
-    <t># ex: mg/ml</t>
-  </si>
-  <si>
-    <t># ex: 0.98</t>
-  </si>
-  <si>
-    <t># ex: 0.0005</t>
-  </si>
-  <si>
-    <t># ex: 2.0</t>
-  </si>
-  <si>
-    <t># ex: mg</t>
-  </si>
-  <si>
-    <t># ex: 10</t>
-  </si>
-  <si>
-    <t># ex: 0.335 ou NA</t>
-  </si>
-  <si>
-    <t># ex: 0.001 ou NA</t>
-  </si>
-  <si>
-    <t># 0.123ou NA</t>
-  </si>
-  <si>
-    <t># 409.935 ou NA</t>
-  </si>
-  <si>
-    <t># ex: 615.0</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
         <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
         <v>36</v>
@@ -528,16 +528,16 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
@@ -546,13 +546,13 @@
         <v>52</v>
       </c>
       <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" t="s">
         <v>52</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>53</v>
       </c>
       <c r="S3" t="s">
         <v>52</v>
@@ -564,16 +564,16 @@
         <v>52</v>
       </c>
       <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
         <v>52</v>
       </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" t="s">
-        <v>50</v>
-      </c>
       <c r="Y3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -611,46 +611,46 @@
         <v>64</v>
       </c>
       <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="s">
-        <v>61</v>
-      </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>66</v>
       </c>
       <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
         <v>67</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>61</v>
       </c>
       <c r="R4" t="s">
         <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T4" t="s">
         <v>69</v>
       </c>
       <c r="U4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
         <v>61</v>
       </c>
       <c r="X4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -718,13 +718,13 @@
         <v>91</v>
       </c>
       <c r="V5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
         <v>92</v>
-      </c>
-      <c r="W5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
       </c>
       <c r="Y5" t="s">
         <v>93</v>

--- a/template_pegase_v1/progressivecurveexperiment.xlsx
+++ b/template_pegase_v1/progressivecurveexperiment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>AnalysisDate</t>
   </si>
@@ -80,9 +80,15 @@
     <t>ResultUnit</t>
   </si>
   <si>
+    <t>TimeStep</t>
+  </si>
+  <si>
     <t>MeasuredEnzyme</t>
   </si>
   <si>
+    <t>UsedSubstrat</t>
+  </si>
+  <si>
     <t>MolarExtinctionCoefficient</t>
   </si>
   <si>
@@ -152,7 +158,13 @@
     <t># Unité du résultat</t>
   </si>
   <si>
+    <t># Pas de temps de la mesure</t>
+  </si>
+  <si>
     <t># Enzyme dosée</t>
+  </si>
+  <si>
+    <t># substrat utilisé</t>
   </si>
   <si>
     <t># Coefficient d'extinction molaire</t>
@@ -177,6 +189,10 @@
     <t>#integer</t>
   </si>
   <si>
+    <t>#integer,
+  unit:s</t>
+  </si>
+  <si>
     <t># format:  jj/mm/aaa</t>
   </si>
   <si>
@@ -204,7 +220,7 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
-    <t># format: nombre entier, ne pas spécifier d'unité</t>
+    <t># format: nombre entier, ne pas spécifier d'unité (nm)</t>
   </si>
   <si>
     <t># format: alphanumérique XXXX-XXXX,  ne pas spécifier d'unité</t>
@@ -223,6 +239,9 @@
   </si>
   <si>
     <t># format : nombre décimal ou NA</t>
+  </si>
+  <si>
+    <t># format: entier,  ne pas spécifier d'unité (seconde)</t>
   </si>
   <si>
     <t># format: texte libre</t>
@@ -339,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -421,313 +440,343 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" t="s">
-        <v>61</v>
-      </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" t="s">
         <v>70</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>88</v>
+      </c>
+      <c r="W5" t="s">
         <v>85</v>
       </c>
-      <c r="P5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>87</v>
-      </c>
-      <c r="R5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S5" t="s">
-        <v>89</v>
-      </c>
-      <c r="T5" t="s">
-        <v>90</v>
-      </c>
-      <c r="U5" t="s">
-        <v>91</v>
-      </c>
-      <c r="V5" t="s">
-        <v>82</v>
-      </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
       <c r="X5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
